--- a/medicine/Psychotrope/Delia_Nivolelli/Delia_Nivolelli.xlsx
+++ b/medicine/Psychotrope/Delia_Nivolelli/Delia_Nivolelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  Delia Nivolelli est un vignoble de la région Sicile doté d'une appellation DOC depuis le 10 juin 1998. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province de Trapani dans les communes de Mazara del Vallo, Marsala, Petrosino et Salemi
 </t>
@@ -511,7 +523,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cépages utilés sont: Ansonica (ou Inzolia), Grecanico dorato, Damaschino, Grillo, Chardonnay, Sauvignon, Nero d'Avola, Perricone (ou Pignatello), Cabernet-sauvignon, Müller-Thurgau, Syrah, Merlot et Sangiovese
 Actuellement, l'appellation Delia Nivolelli est subdivisée en sous-appellations selon le cépage.
@@ -543,7 +557,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les appellations sont:
 Delia Nivolelli Cabernet Sauvignon
